--- a/XLS data/SHG.xlsx
+++ b/XLS data/SHG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOS\XLS data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5E7076-7D15-4EAD-899C-3191862EEA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE79A90-50EE-47ED-9CD3-07F1CB8AB045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{C04F3656-6872-4AAE-94DF-BF61196F368D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C04F3656-6872-4AAE-94DF-BF61196F368D}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -105,9 +105,10 @@
 5)&lt;00&gt;,&lt;00&gt;,... Check
  -&gt;Negetive Testing
 6) Cutoff New
-7) Cutoff Update
+7) Cutoff Update(Do not use)
 8) Regular New
-9) Regular Update</t>
+9) Regular Update(Do not use)
+</t>
         </r>
       </text>
     </comment>
@@ -350,8 +351,47 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dell</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CA84B036-9F35-44FE-9CFE-80CBFA53E51D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1) New
+2) &lt;00&gt;,&lt;00&gt;,... Update
+ -&gt;Should be ascending order
+ -&gt;'Update can be changed to any message without space.
+3)&lt;00&gt;,&lt;00&gt;,... Check
+ -&gt;Negetive Testing</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="332">
   <si>
     <t>LokOS_2.0.31.apk</t>
   </si>
@@ -1089,6 +1129,264 @@
   </si>
   <si>
     <t>005 Amount of Loans</t>
+  </si>
+  <si>
+    <t>006 Fund Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106 Disbursed Loan Amount </t>
+  </si>
+  <si>
+    <t>206 Principal Repaid</t>
+  </si>
+  <si>
+    <t>306 Principal Arrears</t>
+  </si>
+  <si>
+    <t>406 Interest Rate(Annually)</t>
+  </si>
+  <si>
+    <t>506 Interest Paid</t>
+  </si>
+  <si>
+    <t>606 Overdue Interest(if any)</t>
+  </si>
+  <si>
+    <t>706 Total Overdue</t>
+  </si>
+  <si>
+    <t>806 Loan Disbursement Date</t>
+  </si>
+  <si>
+    <t>906 Mode of Receipt</t>
+  </si>
+  <si>
+    <t>1006 Period(Months)</t>
+  </si>
+  <si>
+    <t>1106 Loan Repayment Frequency</t>
+  </si>
+  <si>
+    <t>1206 Purpose</t>
+  </si>
+  <si>
+    <t>007 Fund Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107 Disbursed Loan Amount </t>
+  </si>
+  <si>
+    <t>207 Principal Repaid</t>
+  </si>
+  <si>
+    <t>307 Principal Arrears</t>
+  </si>
+  <si>
+    <t>407 Interest Rate(Annually)</t>
+  </si>
+  <si>
+    <t>507 Interest Paid</t>
+  </si>
+  <si>
+    <t>607 Overdue Interest(if any)</t>
+  </si>
+  <si>
+    <t>707 Total Overdue</t>
+  </si>
+  <si>
+    <t>807 Loan Disbursement Date</t>
+  </si>
+  <si>
+    <t>907 Mode of Receipt</t>
+  </si>
+  <si>
+    <t>1007 Period(Months)</t>
+  </si>
+  <si>
+    <t>1107 Loan Repayment Frequency</t>
+  </si>
+  <si>
+    <t>1207 Purpose</t>
+  </si>
+  <si>
+    <t>008 Fund Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108 Disbursed Loan Amount </t>
+  </si>
+  <si>
+    <t>208 Principal Repaid</t>
+  </si>
+  <si>
+    <t>308 Principal Arrears</t>
+  </si>
+  <si>
+    <t>408 Interest Rate(Annually)</t>
+  </si>
+  <si>
+    <t>508 Interest Paid</t>
+  </si>
+  <si>
+    <t>608 Overdue Interest(if any)</t>
+  </si>
+  <si>
+    <t>708 Total Overdue</t>
+  </si>
+  <si>
+    <t>808 Loan Disbursement Date</t>
+  </si>
+  <si>
+    <t>908 Mode of Receipt</t>
+  </si>
+  <si>
+    <t>1008 Period(Months)</t>
+  </si>
+  <si>
+    <t>1108 Loan Repayment Frequency</t>
+  </si>
+  <si>
+    <t>1208 Purpose</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>04_07_2019</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>009 Share Capital</t>
+  </si>
+  <si>
+    <t>010 Membership Fee</t>
+  </si>
+  <si>
+    <t>111 Type of Saving</t>
+  </si>
+  <si>
+    <t>211 Amount</t>
+  </si>
+  <si>
+    <t>VO</t>
+  </si>
+  <si>
+    <t>Share Capital</t>
+  </si>
+  <si>
+    <t>112 Borrowed From</t>
+  </si>
+  <si>
+    <t>212 Fund Source</t>
+  </si>
+  <si>
+    <t>312 Number of Loans</t>
+  </si>
+  <si>
+    <t>412 Total Amount</t>
+  </si>
+  <si>
+    <t>CLF</t>
+  </si>
+  <si>
+    <t>113 Borrowed From</t>
+  </si>
+  <si>
+    <t>213 Loan Account No.</t>
+  </si>
+  <si>
+    <t>313 Fund Source</t>
+  </si>
+  <si>
+    <t>413 Type of Loan</t>
+  </si>
+  <si>
+    <t>513 Loan Disbursement Date</t>
+  </si>
+  <si>
+    <t>613 Mode of Receipt</t>
+  </si>
+  <si>
+    <t>713 Interest Rate(Annually)</t>
+  </si>
+  <si>
+    <t>813 Amount Withdrawn</t>
+  </si>
+  <si>
+    <t>913 Original Period(In Months)</t>
+  </si>
+  <si>
+    <t>1013 Total Outstanding Period(in Months)</t>
+  </si>
+  <si>
+    <t>1113 Remaining Period(in Months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1213 Principal Repaid</t>
+  </si>
+  <si>
+    <t>1313 Principal Outstanding(including Arrears)</t>
+  </si>
+  <si>
+    <t>1413 Principal Arrears</t>
+  </si>
+  <si>
+    <t>1513 Interest Arrears</t>
+  </si>
+  <si>
+    <t>014 Source(Fund Received)</t>
+  </si>
+  <si>
+    <t>114 Fund Source</t>
+  </si>
+  <si>
+    <t>214 Mode of Receipt</t>
+  </si>
+  <si>
+    <t>314 Total Amount Received</t>
+  </si>
+  <si>
+    <t>115 Cash in Transit</t>
+  </si>
+  <si>
+    <t>016 Bank Name(Grp Bank Balance)</t>
+  </si>
+  <si>
+    <t>116 Cash in Bank</t>
+  </si>
+  <si>
+    <t>216 Cheque issued but amount not debited</t>
+  </si>
+  <si>
+    <t>316 Cheque received but amount not credited</t>
+  </si>
+  <si>
+    <t>416 Date of Balance taken</t>
+  </si>
+  <si>
+    <t>1613 Repayment Frequency</t>
+  </si>
+  <si>
+    <t>013 Institution(Grp Active Loan)</t>
+  </si>
+  <si>
+    <t>012 Institution(Grp Closed Loan)</t>
+  </si>
+  <si>
+    <t>011 Investment At(Group Investment)</t>
+  </si>
+  <si>
+    <t>015 Cash in Hand(Grp Cash Balance)</t>
+  </si>
+  <si>
+    <t>215 Date of Balance Taken</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1210,6 +1508,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1217,6 +1569,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1229,27 +1611,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1259,55 +1621,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1322,8 +1642,86 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1642,7 +2040,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1652,26 +2050,26 @@
     <col min="11" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1710,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A03593-CEAC-4FD9-A038-F5EE25925CE3}">
   <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1720,188 +2118,188 @@
     <col min="2" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:61" s="30" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AS1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AT1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BE1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BF1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BG1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BH1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="BI1" s="27" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1912,7 +2310,7 @@
       <c r="B2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="3" t="s">
         <v>240</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1927,8 +2325,8 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1940,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCD4E0-07FC-46A0-AF8C-3F93CADE071E}">
   <dimension ref="A1:BH7"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1951,189 +2349,189 @@
     <col min="3" max="3" width="13.21875" style="1"/>
     <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
     <col min="5" max="57" width="13.21875" style="1"/>
-    <col min="58" max="58" width="13.21875" style="23"/>
+    <col min="58" max="58" width="13.21875" style="8"/>
     <col min="59" max="16384" width="13.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:60" s="28" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AS1" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AT1" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BE1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="BF1" s="22" t="s">
+      <c r="BF1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BG1" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BH1" s="27" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2141,7 +2539,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2168,7 +2566,7 @@
       <c r="J2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="6" t="s">
         <v>163</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -2210,19 +2608,19 @@
       <c r="X2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AC2" s="5" t="s">
         <v>178</v>
       </c>
       <c r="AF2" s="1" t="s">
@@ -2252,7 +2650,7 @@
       <c r="AN2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AO2" s="19" t="s">
+      <c r="AO2" s="5" t="s">
         <v>152</v>
       </c>
       <c r="AP2" s="1" t="s">
@@ -2276,7 +2674,7 @@
       <c r="AW2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AZ2" s="19" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>187</v>
       </c>
       <c r="BA2" s="1" t="s">
@@ -2285,7 +2683,7 @@
       <c r="BB2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BC2" s="19" t="s">
+      <c r="BC2" s="5" t="s">
         <v>190</v>
       </c>
       <c r="BD2" s="1" t="s">
@@ -2294,7 +2692,7 @@
       <c r="BE2" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BF2" s="21" t="s">
+      <c r="BF2" s="7" t="s">
         <v>225</v>
       </c>
       <c r="BG2" s="1" t="s">
@@ -2305,7 +2703,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2332,7 +2730,7 @@
       <c r="J3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="6" t="s">
         <v>163</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -2362,19 +2760,19 @@
       <c r="X3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Y3" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="Z3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AB3" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AC3" s="5" t="s">
         <v>178</v>
       </c>
       <c r="AF3" s="1" t="s">
@@ -2404,7 +2802,7 @@
       <c r="AN3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AO3" s="19" t="s">
+      <c r="AO3" s="5" t="s">
         <v>152</v>
       </c>
       <c r="AP3" s="1" t="s">
@@ -2428,7 +2826,7 @@
       <c r="AW3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AZ3" s="19" t="s">
+      <c r="AZ3" s="5" t="s">
         <v>187</v>
       </c>
       <c r="BA3" s="1" t="s">
@@ -2437,7 +2835,7 @@
       <c r="BB3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BC3" s="19" t="s">
+      <c r="BC3" s="5" t="s">
         <v>190</v>
       </c>
       <c r="BD3" s="1" t="s">
@@ -2446,7 +2844,7 @@
       <c r="BE3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BF3" s="21" t="s">
+      <c r="BF3" s="7" t="s">
         <v>225</v>
       </c>
       <c r="BG3" s="1" t="s">
@@ -2457,7 +2855,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2484,7 +2882,7 @@
       <c r="J4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="6" t="s">
         <v>163</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -2526,19 +2924,19 @@
       <c r="X4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" s="19" t="s">
+      <c r="Y4" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="Z4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AA4" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AB4" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AC4" s="19" t="s">
+      <c r="AC4" s="5" t="s">
         <v>178</v>
       </c>
       <c r="AF4" s="1" t="s">
@@ -2568,7 +2966,7 @@
       <c r="AN4" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AO4" s="19" t="s">
+      <c r="AO4" s="5" t="s">
         <v>152</v>
       </c>
       <c r="AP4" s="1" t="s">
@@ -2592,7 +2990,7 @@
       <c r="AW4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AZ4" s="19" t="s">
+      <c r="AZ4" s="5" t="s">
         <v>187</v>
       </c>
       <c r="BA4" s="1" t="s">
@@ -2601,7 +2999,7 @@
       <c r="BB4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BC4" s="19" t="s">
+      <c r="BC4" s="5" t="s">
         <v>190</v>
       </c>
       <c r="BD4" s="1" t="s">
@@ -2610,7 +3008,7 @@
       <c r="BE4" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="BF4" s="21" t="s">
+      <c r="BF4" s="7" t="s">
         <v>225</v>
       </c>
       <c r="BG4" s="1" t="s">
@@ -2621,7 +3019,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2648,7 +3046,7 @@
       <c r="J5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="6" t="s">
         <v>163</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -2678,19 +3076,19 @@
       <c r="X5" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Y5" s="19" t="s">
+      <c r="Y5" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="Z5" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AA5" s="19" t="s">
+      <c r="AA5" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AB5" s="19" t="s">
+      <c r="AB5" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AC5" s="19" t="s">
+      <c r="AC5" s="5" t="s">
         <v>178</v>
       </c>
       <c r="AF5" s="1" t="s">
@@ -2720,7 +3118,7 @@
       <c r="AN5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AO5" s="19" t="s">
+      <c r="AO5" s="5" t="s">
         <v>152</v>
       </c>
       <c r="AP5" s="1" t="s">
@@ -2744,7 +3142,7 @@
       <c r="AW5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AZ5" s="19" t="s">
+      <c r="AZ5" s="5" t="s">
         <v>187</v>
       </c>
       <c r="BA5" s="1" t="s">
@@ -2753,7 +3151,7 @@
       <c r="BB5" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BC5" s="19" t="s">
+      <c r="BC5" s="5" t="s">
         <v>190</v>
       </c>
       <c r="BD5" s="1" t="s">
@@ -2762,7 +3160,7 @@
       <c r="BE5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BF5" s="21" t="s">
+      <c r="BF5" s="7" t="s">
         <v>225</v>
       </c>
       <c r="BG5" s="1" t="s">
@@ -2773,7 +3171,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2800,7 +3198,7 @@
       <c r="J6" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="6" t="s">
         <v>163</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -2842,19 +3240,19 @@
       <c r="X6" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="Y6" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="Z6" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AA6" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AC6" s="5" t="s">
         <v>178</v>
       </c>
       <c r="AF6" s="1" t="s">
@@ -2884,7 +3282,7 @@
       <c r="AN6" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AO6" s="19" t="s">
+      <c r="AO6" s="5" t="s">
         <v>152</v>
       </c>
       <c r="AP6" s="1" t="s">
@@ -2908,7 +3306,7 @@
       <c r="AW6" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AZ6" s="19" t="s">
+      <c r="AZ6" s="5" t="s">
         <v>187</v>
       </c>
       <c r="BA6" s="1" t="s">
@@ -2917,7 +3315,7 @@
       <c r="BB6" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BC6" s="19" t="s">
+      <c r="BC6" s="5" t="s">
         <v>190</v>
       </c>
       <c r="BD6" s="1" t="s">
@@ -2926,7 +3324,7 @@
       <c r="BE6" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BF6" s="21" t="s">
+      <c r="BF6" s="7" t="s">
         <v>225</v>
       </c>
       <c r="BG6" s="1" t="s">
@@ -2937,7 +3335,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2964,7 +3362,7 @@
       <c r="J7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="6" t="s">
         <v>163</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -3006,19 +3404,19 @@
       <c r="X7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Y7" s="19" t="s">
+      <c r="Y7" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Z7" s="19" t="s">
+      <c r="Z7" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AA7" s="19" t="s">
+      <c r="AA7" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AB7" s="19" t="s">
+      <c r="AB7" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AC7" s="19" t="s">
+      <c r="AC7" s="5" t="s">
         <v>178</v>
       </c>
       <c r="AF7" s="1" t="s">
@@ -3048,7 +3446,7 @@
       <c r="AN7" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AO7" s="19" t="s">
+      <c r="AO7" s="5" t="s">
         <v>152</v>
       </c>
       <c r="AP7" s="1" t="s">
@@ -3072,7 +3470,7 @@
       <c r="AW7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AZ7" s="19" t="s">
+      <c r="AZ7" s="5" t="s">
         <v>187</v>
       </c>
       <c r="BA7" s="1" t="s">
@@ -3081,7 +3479,7 @@
       <c r="BB7" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BC7" s="19" t="s">
+      <c r="BC7" s="5" t="s">
         <v>190</v>
       </c>
       <c r="BD7" s="1" t="s">
@@ -3090,7 +3488,7 @@
       <c r="BE7" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BF7" s="21" t="s">
+      <c r="BF7" s="7" t="s">
         <v>225</v>
       </c>
       <c r="BG7" s="1" t="s">
@@ -3110,7 +3508,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3126,38 +3524,38 @@
     <col min="9" max="16384" width="19.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="34" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3202,11 +3600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A083303-6D11-4778-BA0F-6FF70BCF553C}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A083303-6D11-4778-BA0F-6FF70BCF553C}">
+  <dimension ref="A1:CJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3215,39 +3613,273 @@
     <col min="2" max="16384" width="19.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:88" s="16" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>245</v>
       </c>
+      <c r="K1" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP1" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ1" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="AV1" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW1" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="AX1" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY1" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ1" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="BA1" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="BB1" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="BC1" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="BD1" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="BE1" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="BF1" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="BG1" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH1" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="BI1" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="BJ1" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="BK1" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="BL1" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="BM1" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="BN1" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="BO1" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="BP1" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="BQ1" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="BR1" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="BS1" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="BT1" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="BU1" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="BV1" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="BW1" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="BX1" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="BY1" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="BZ1" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="CA1" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="CB1" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="CC1" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="CD1" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="CE1" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="CF1" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="CG1" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="CH1" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="CI1" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="CJ1" s="17" t="s">
+        <v>325</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3277,10 +3909,147 @@
       </c>
       <c r="J2" s="1">
         <v>100</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L2" s="1">
+        <v>500</v>
+      </c>
+      <c r="M2" s="1">
+        <v>200</v>
+      </c>
+      <c r="N2" s="1">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10</v>
+      </c>
+      <c r="P2" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1">
+        <v>60</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U2" s="1">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>500</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>200</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>60</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>500</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>200</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>60</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>200</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>500</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3288,10 +4057,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3B83A4-8E9A-433A-9EB5-5CD2EC24A8FA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>